--- a/Documentation/Event_Logging.xlsx
+++ b/Documentation/Event_Logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/slk125_pitt_edu/Documents/24-25 Spring/CIST 1451/Github/CAPSTONE-Password-Manager/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605B0A12-CAD2-4420-AECC-C6639B790511}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B89527-BBF8-46ED-8D81-27FC1D6BCF40}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>View Users</t>
   </si>
   <si>
-    <t>View User Passwords</t>
-  </si>
-  <si>
     <t>Create User</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Failed to View Users (Unauthorized)</t>
   </si>
   <si>
-    <t>Failed to View User Passwords (Unauthorized)</t>
-  </si>
-  <si>
     <t>Failed to Create User (Unauthorized)</t>
   </si>
   <si>
@@ -93,6 +87,12 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>View Audit Logs</t>
+  </si>
+  <si>
+    <t>Failed to View Audit Logs (Unauthorized)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,10 +163,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -498,7 +505,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB59255-DE4D-425A-9550-27ED5E74C070}">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -520,7 +529,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -528,7 +537,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
@@ -536,7 +545,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -544,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -552,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -560,15 +569,15 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
@@ -576,15 +585,15 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
@@ -592,15 +601,15 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -608,39 +617,39 @@
         <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Event_Logging.xlsx
+++ b/Documentation/Event_Logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/slk125_pitt_edu/Documents/24-25 Spring/CIST 1451/Github/CAPSTONE-Password-Manager/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{605B0A12-CAD2-4420-AECC-C6639B790511}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6325C568-186B-42CD-9576-79F606343C4F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B89527-BBF8-46ED-8D81-27FC1D6BCF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
   <si>
     <t>Event</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Failed to View Audit Logs (Unauthorized)</t>
+  </si>
+  <si>
+    <t>Failed to Create User (Invalid Password)</t>
+  </si>
+  <si>
+    <t>Failed to Update User (Invalid Password)</t>
   </si>
 </sst>
 </file>
@@ -116,7 +122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,6 +143,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -163,11 +175,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -184,6 +197,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -503,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB59255-DE4D-425A-9550-27ED5E74C070}">
-  <dimension ref="B2:C18"/>
+  <dimension ref="B2:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,58 +614,74 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C18" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="2" t="s">
+      <c r="C19" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Documentation/Event_Logging.xlsx
+++ b/Documentation/Event_Logging.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/slk125_pitt_edu/Documents/24-25 Spring/CIST 1451/Github/CAPSTONE-Password-Manager/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6325C568-186B-42CD-9576-79F606343C4F}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35D7E2DA-25E5-4B9F-B6C7-BCF83D9E64C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B89527-BBF8-46ED-8D81-27FC1D6BCF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
   <si>
     <t>Event</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Create User</t>
   </si>
   <si>
-    <t>Update User</t>
-  </si>
-  <si>
     <t>Delete User</t>
   </si>
   <si>
@@ -99,13 +96,76 @@
   </si>
   <si>
     <t>Failed to Update User (Invalid Password)</t>
+  </si>
+  <si>
+    <t>Account Locked</t>
+  </si>
+  <si>
+    <t>Account Unlocked</t>
+  </si>
+  <si>
+    <t>Event Type</t>
+  </si>
+  <si>
+    <t>USER_LOGIN</t>
+  </si>
+  <si>
+    <t>FAILED_LOGIN</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCKED</t>
+  </si>
+  <si>
+    <t>USER_LOGOUT</t>
+  </si>
+  <si>
+    <t>UNAUTHORIZED_ACTION</t>
+  </si>
+  <si>
+    <t>INVALID_PASSWORD</t>
+  </si>
+  <si>
+    <t>USER_CREATE</t>
+  </si>
+  <si>
+    <t>USER_VIEW</t>
+  </si>
+  <si>
+    <t>Update Own User</t>
+  </si>
+  <si>
+    <t>Update Other User</t>
+  </si>
+  <si>
+    <t>USER_UPDATE</t>
+  </si>
+  <si>
+    <t>USER_DELETE</t>
+  </si>
+  <si>
+    <t>ACCOUNT_UNLOCK</t>
+  </si>
+  <si>
+    <t>Failed to Unlock Account (Unauthorized)</t>
+  </si>
+  <si>
+    <t>PASSWORD_ADD</t>
+  </si>
+  <si>
+    <t>PASSWORD_UPDATE</t>
+  </si>
+  <si>
+    <t>PASSWORD_DELETE</t>
+  </si>
+  <si>
+    <t>AUDIT_LOG_VIEW</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,36 +181,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -175,18 +220,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -201,6 +297,18 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}" name="Table1" displayName="Table1" ref="B2:D24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:D24" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{9D1120C1-264D-4F40-B488-6289C2DDD9DE}" name="Event" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{BF1A5F81-979D-4517-9B6D-6A4D4587BAD0}" name="Logged?" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E307883E-2D22-4E61-969E-9D50B2C71549}" name="Event Type" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,172 +628,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB59255-DE4D-425A-9550-27ED5E74C070}">
-  <dimension ref="B2:C20"/>
+  <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="D2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
+      <c r="C22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>16</v>
+      <c r="C24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documentation/Event_Logging.xlsx
+++ b/Documentation/Event_Logging.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pitt-my.sharepoint.com/personal/slk125_pitt_edu/Documents/24-25 Spring/CIST 1451/Github/CAPSTONE-Password-Manager/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slkir\OneDrive - University of Pittsburgh\24-25 Spring\CIST 1451\Github\CAPSTONE-Password-Manager\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="8_{9A701678-90BC-4C5B-8261-7BD62605C600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35D7E2DA-25E5-4B9F-B6C7-BCF83D9E64C8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729C65B2-61B4-406A-996A-101E36681AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82B89527-BBF8-46ED-8D81-27FC1D6BCF40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{82B89527-BBF8-46ED-8D81-27FC1D6BCF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="45">
   <si>
     <t>Event</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Failed to Update User (Invalid Password)</t>
   </si>
   <si>
-    <t>Account Locked</t>
-  </si>
-  <si>
     <t>Account Unlocked</t>
   </si>
   <si>
@@ -159,6 +156,21 @@
   </si>
   <si>
     <t>AUDIT_LOG_VIEW</t>
+  </si>
+  <si>
+    <t>Share Password</t>
+  </si>
+  <si>
+    <t>PASSWORD_SHARE</t>
+  </si>
+  <si>
+    <t>Account Locked from Failed Log In</t>
+  </si>
+  <si>
+    <t>Account Mannually Locked</t>
+  </si>
+  <si>
+    <t>ACCOUNT_LOCK</t>
   </si>
 </sst>
 </file>
@@ -222,8 +234,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -231,18 +243,6 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="15"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -275,6 +275,18 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="15"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -295,17 +307,13 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}" name="Table1" displayName="Table1" ref="B2:D24" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowCellStyle="Heading 1">
-  <autoFilter ref="B2:D24" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}" name="Table1" displayName="Table1" ref="B2:D26" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Heading 1">
+  <autoFilter ref="B2:D26" xr:uid="{76EA9C3E-FB0D-4A1C-9FDC-5DB040B4F5AB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{9D1120C1-264D-4F40-B488-6289C2DDD9DE}" name="Event" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{BF1A5F81-979D-4517-9B6D-6A4D4587BAD0}" name="Logged?" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E307883E-2D22-4E61-969E-9D50B2C71549}" name="Event Type" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{9D1120C1-264D-4F40-B488-6289C2DDD9DE}" name="Event" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BF1A5F81-979D-4517-9B6D-6A4D4587BAD0}" name="Logged?" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E307883E-2D22-4E61-969E-9D50B2C71549}" name="Event Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,9 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AB59255-DE4D-425A-9550-27ED5E74C070}">
-  <dimension ref="B2:D24"/>
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -641,256 +651,278 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
